--- a/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_Ctrough.200mg QD.xlsx
+++ b/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_Ctrough.200mg QD.xlsx
@@ -19,10 +19,10 @@
     <t>Time  [h]</t>
   </si>
   <si>
-    <t>Error  [mg/l]</t>
+    <t>Conc  [mg/l]</t>
   </si>
   <si>
-    <t>Conc  [mg/l]</t>
+    <t>Error  [mg/l]</t>
   </si>
 </sst>
 </file>
@@ -142,10 +142,10 @@
         <v>168</v>
       </c>
       <c r="B2" s="15">
-        <v>0.053099997341632843</v>
+        <v>0.28700000047683716</v>
       </c>
       <c r="C2" s="15">
-        <v>0.28700000047683716</v>
+        <v>0.053099997341632843</v>
       </c>
     </row>
     <row r="3">
@@ -153,10 +153,10 @@
         <v>240</v>
       </c>
       <c r="B3" s="15">
-        <v>0.12300000339746475</v>
+        <v>0.31000000238418579</v>
       </c>
       <c r="C3" s="15">
-        <v>0.31000000238418579</v>
+        <v>0.12300000339746475</v>
       </c>
     </row>
     <row r="4">
@@ -164,10 +164,10 @@
         <v>312</v>
       </c>
       <c r="B4" s="15">
-        <v>0.15800000727176666</v>
+        <v>0.37099999189376831</v>
       </c>
       <c r="C4" s="15">
-        <v>0.37099999189376831</v>
+        <v>0.15800000727176666</v>
       </c>
     </row>
     <row r="5">
@@ -175,10 +175,10 @@
         <v>360</v>
       </c>
       <c r="B5" s="15">
-        <v>0.18000000715255737</v>
+        <v>0.41899999976158142</v>
       </c>
       <c r="C5" s="15">
-        <v>0.41899999976158142</v>
+        <v>0.18000000715255737</v>
       </c>
     </row>
   </sheetData>
